--- a/Design&Spec/Design.xlsx
+++ b/Design&Spec/Design.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9F041-F868-4FF9-9078-CBDC043A4820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E85A3-2502-4D06-9BAA-25FB258B7C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,7 +1712,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -2668,12 +2663,6 @@
     <xf numFmtId="49" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2686,7 +2675,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2709,7 +2698,7 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2718,7 +2707,7 @@
     <xf numFmtId="49" fontId="6" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2730,11 +2719,17 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="25" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11168,13 +11163,13 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="35"/>
-      <c r="P54" s="301" t="s">
+      <c r="P54" s="354" t="s">
         <v>104</v>
       </c>
-      <c r="Q54" s="301"/>
-      <c r="R54" s="301"/>
-      <c r="S54" s="301"/>
-      <c r="T54" s="301"/>
+      <c r="Q54" s="354"/>
+      <c r="R54" s="354"/>
+      <c r="S54" s="354"/>
+      <c r="T54" s="354"/>
       <c r="X54" s="40"/>
       <c r="Y54" s="36"/>
       <c r="Z54" s="36"/>
@@ -11233,11 +11228,11 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="35"/>
-      <c r="P55" s="301"/>
-      <c r="Q55" s="301"/>
-      <c r="R55" s="301"/>
-      <c r="S55" s="301"/>
-      <c r="T55" s="301"/>
+      <c r="P55" s="354"/>
+      <c r="Q55" s="354"/>
+      <c r="R55" s="354"/>
+      <c r="S55" s="354"/>
+      <c r="T55" s="354"/>
       <c r="X55" s="40"/>
       <c r="Y55" s="36"/>
       <c r="Z55" s="36"/>
@@ -12252,13 +12247,13 @@
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="35"/>
-      <c r="P71" s="301" t="s">
+      <c r="P71" s="354" t="s">
         <v>104</v>
       </c>
-      <c r="Q71" s="301"/>
-      <c r="R71" s="301"/>
-      <c r="S71" s="301"/>
-      <c r="T71" s="301"/>
+      <c r="Q71" s="354"/>
+      <c r="R71" s="354"/>
+      <c r="S71" s="354"/>
+      <c r="T71" s="354"/>
       <c r="X71" s="40"/>
       <c r="Y71" s="36"/>
       <c r="Z71" s="36"/>
@@ -12315,11 +12310,11 @@
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="35"/>
-      <c r="P72" s="301"/>
-      <c r="Q72" s="301"/>
-      <c r="R72" s="301"/>
-      <c r="S72" s="301"/>
-      <c r="T72" s="301"/>
+      <c r="P72" s="354"/>
+      <c r="Q72" s="354"/>
+      <c r="R72" s="354"/>
+      <c r="S72" s="354"/>
+      <c r="T72" s="354"/>
       <c r="X72" s="40"/>
       <c r="Y72" s="36"/>
       <c r="Z72" s="36"/>
@@ -12783,6 +12778,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21669,7 +21665,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26808,6 +26805,7 @@
     <hyperlink ref="AT76" r:id="rId3" xr:uid="{11D36B79-6D7E-465B-A438-9D835440DFDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -27242,13 +27240,13 @@
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="302">
+      <c r="N8" s="355">
         <v>100000</v>
       </c>
-      <c r="O8" s="302"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="302"/>
+      <c r="O8" s="355"/>
+      <c r="P8" s="355"/>
+      <c r="Q8" s="355"/>
+      <c r="R8" s="355"/>
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
       <c r="U8" s="52"/>
@@ -27354,13 +27352,13 @@
       <c r="AS9" s="52"/>
       <c r="AT9" s="52"/>
       <c r="AU9" s="52"/>
-      <c r="AV9" s="302">
+      <c r="AV9" s="355">
         <v>100000</v>
       </c>
-      <c r="AW9" s="302"/>
-      <c r="AX9" s="302"/>
-      <c r="AY9" s="302"/>
-      <c r="AZ9" s="302"/>
+      <c r="AW9" s="355"/>
+      <c r="AX9" s="355"/>
+      <c r="AY9" s="355"/>
+      <c r="AZ9" s="355"/>
       <c r="BA9" s="52"/>
       <c r="BB9" s="52"/>
       <c r="BC9" s="52"/>
@@ -27484,36 +27482,36 @@
       <c r="AM11" s="36"/>
       <c r="AN11" s="115"/>
       <c r="AO11" s="116"/>
-      <c r="AP11" s="304"/>
-      <c r="AQ11" s="304"/>
-      <c r="AR11" s="304" t="s">
+      <c r="AP11" s="302"/>
+      <c r="AQ11" s="302"/>
+      <c r="AR11" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="AS11" s="304"/>
-      <c r="AT11" s="304"/>
-      <c r="AU11" s="304"/>
-      <c r="AV11" s="304"/>
-      <c r="AW11" s="304"/>
-      <c r="AX11" s="304"/>
-      <c r="AY11" s="304"/>
-      <c r="AZ11" s="304"/>
-      <c r="BA11" s="304" t="s">
+      <c r="AS11" s="302"/>
+      <c r="AT11" s="302"/>
+      <c r="AU11" s="302"/>
+      <c r="AV11" s="302"/>
+      <c r="AW11" s="302"/>
+      <c r="AX11" s="302"/>
+      <c r="AY11" s="302"/>
+      <c r="AZ11" s="302"/>
+      <c r="BA11" s="302" t="s">
         <v>352</v>
       </c>
-      <c r="BB11" s="304"/>
-      <c r="BC11" s="304"/>
-      <c r="BD11" s="304"/>
-      <c r="BE11" s="304"/>
-      <c r="BF11" s="304" t="s">
+      <c r="BB11" s="302"/>
+      <c r="BC11" s="302"/>
+      <c r="BD11" s="302"/>
+      <c r="BE11" s="302"/>
+      <c r="BF11" s="302" t="s">
         <v>353</v>
       </c>
-      <c r="BG11" s="304"/>
-      <c r="BH11" s="304"/>
-      <c r="BI11" s="304"/>
-      <c r="BJ11" s="306" t="s">
+      <c r="BG11" s="302"/>
+      <c r="BH11" s="302"/>
+      <c r="BI11" s="302"/>
+      <c r="BJ11" s="304" t="s">
         <v>361</v>
       </c>
-      <c r="BK11" s="304"/>
+      <c r="BK11" s="302"/>
       <c r="BL11" s="116" t="s">
         <v>362</v>
       </c>
@@ -27594,7 +27592,7 @@
       <c r="BG12" s="116"/>
       <c r="BH12" s="116"/>
       <c r="BI12" s="116"/>
-      <c r="BJ12" s="305" t="s">
+      <c r="BJ12" s="303" t="s">
         <v>374</v>
       </c>
       <c r="BK12" s="116"/>
@@ -27644,30 +27642,30 @@
       <c r="AM13" s="36"/>
       <c r="AN13" s="115"/>
       <c r="AO13" s="116"/>
-      <c r="AP13" s="303"/>
-      <c r="AQ13" s="303"/>
-      <c r="AR13" s="303" t="s">
+      <c r="AP13" s="301"/>
+      <c r="AQ13" s="301"/>
+      <c r="AR13" s="301" t="s">
         <v>367</v>
       </c>
-      <c r="AS13" s="303"/>
-      <c r="AT13" s="303"/>
-      <c r="AU13" s="303"/>
-      <c r="AV13" s="303"/>
-      <c r="AW13" s="303"/>
-      <c r="AX13" s="303"/>
-      <c r="AY13" s="303"/>
-      <c r="AZ13" s="303"/>
-      <c r="BA13" s="303"/>
-      <c r="BB13" s="303"/>
-      <c r="BC13" s="303"/>
-      <c r="BD13" s="303"/>
-      <c r="BE13" s="303"/>
-      <c r="BF13" s="303"/>
-      <c r="BG13" s="303"/>
-      <c r="BH13" s="303"/>
-      <c r="BI13" s="303"/>
-      <c r="BJ13" s="303"/>
-      <c r="BK13" s="303"/>
+      <c r="AS13" s="301"/>
+      <c r="AT13" s="301"/>
+      <c r="AU13" s="301"/>
+      <c r="AV13" s="301"/>
+      <c r="AW13" s="301"/>
+      <c r="AX13" s="301"/>
+      <c r="AY13" s="301"/>
+      <c r="AZ13" s="301"/>
+      <c r="BA13" s="301"/>
+      <c r="BB13" s="301"/>
+      <c r="BC13" s="301"/>
+      <c r="BD13" s="301"/>
+      <c r="BE13" s="301"/>
+      <c r="BF13" s="301"/>
+      <c r="BG13" s="301"/>
+      <c r="BH13" s="301"/>
+      <c r="BI13" s="301"/>
+      <c r="BJ13" s="301"/>
+      <c r="BK13" s="301"/>
       <c r="BL13" s="116"/>
       <c r="BM13" s="117"/>
       <c r="BN13" s="36"/>
@@ -27680,36 +27678,36 @@
       <c r="E14" s="36"/>
       <c r="F14" s="115"/>
       <c r="G14" s="116"/>
-      <c r="H14" s="304"/>
-      <c r="I14" s="304"/>
-      <c r="J14" s="304" t="s">
+      <c r="H14" s="302"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
-      <c r="M14" s="304"/>
-      <c r="N14" s="304"/>
-      <c r="O14" s="304"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="304" t="s">
+      <c r="K14" s="302"/>
+      <c r="L14" s="302"/>
+      <c r="M14" s="302"/>
+      <c r="N14" s="302"/>
+      <c r="O14" s="302"/>
+      <c r="P14" s="302"/>
+      <c r="Q14" s="302"/>
+      <c r="R14" s="302"/>
+      <c r="S14" s="302" t="s">
         <v>352</v>
       </c>
-      <c r="T14" s="304"/>
-      <c r="U14" s="304"/>
-      <c r="V14" s="304"/>
-      <c r="W14" s="304"/>
-      <c r="X14" s="304" t="s">
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="302"/>
+      <c r="W14" s="302"/>
+      <c r="X14" s="302" t="s">
         <v>353</v>
       </c>
-      <c r="Y14" s="304"/>
-      <c r="Z14" s="304"/>
-      <c r="AA14" s="304"/>
-      <c r="AB14" s="306" t="s">
+      <c r="Y14" s="302"/>
+      <c r="Z14" s="302"/>
+      <c r="AA14" s="302"/>
+      <c r="AB14" s="304" t="s">
         <v>361</v>
       </c>
-      <c r="AC14" s="304"/>
+      <c r="AC14" s="302"/>
       <c r="AD14" s="116" t="s">
         <v>362</v>
       </c>
@@ -27724,36 +27722,36 @@
         <v>377</v>
       </c>
       <c r="AO14" s="107"/>
-      <c r="AP14" s="307"/>
-      <c r="AQ14" s="307"/>
-      <c r="AR14" s="307" t="s">
+      <c r="AP14" s="305"/>
+      <c r="AQ14" s="305"/>
+      <c r="AR14" s="305" t="s">
         <v>355</v>
       </c>
-      <c r="AS14" s="307"/>
-      <c r="AT14" s="307"/>
-      <c r="AU14" s="307"/>
-      <c r="AV14" s="307"/>
-      <c r="AW14" s="307"/>
-      <c r="AX14" s="307"/>
-      <c r="AY14" s="307"/>
-      <c r="AZ14" s="307"/>
-      <c r="BA14" s="307" t="s">
+      <c r="AS14" s="305"/>
+      <c r="AT14" s="305"/>
+      <c r="AU14" s="305"/>
+      <c r="AV14" s="305"/>
+      <c r="AW14" s="305"/>
+      <c r="AX14" s="305"/>
+      <c r="AY14" s="305"/>
+      <c r="AZ14" s="305"/>
+      <c r="BA14" s="305" t="s">
         <v>352</v>
       </c>
-      <c r="BB14" s="307"/>
-      <c r="BC14" s="307"/>
-      <c r="BD14" s="307"/>
-      <c r="BE14" s="307"/>
-      <c r="BF14" s="307" t="s">
+      <c r="BB14" s="305"/>
+      <c r="BC14" s="305"/>
+      <c r="BD14" s="305"/>
+      <c r="BE14" s="305"/>
+      <c r="BF14" s="305" t="s">
         <v>353</v>
       </c>
-      <c r="BG14" s="307"/>
-      <c r="BH14" s="307"/>
-      <c r="BI14" s="307"/>
-      <c r="BJ14" s="308" t="s">
+      <c r="BG14" s="305"/>
+      <c r="BH14" s="305"/>
+      <c r="BI14" s="305"/>
+      <c r="BJ14" s="306" t="s">
         <v>361</v>
       </c>
-      <c r="BK14" s="307"/>
+      <c r="BK14" s="305"/>
       <c r="BL14" s="107" t="s">
         <v>362</v>
       </c>
@@ -27798,7 +27796,7 @@
       <c r="Y15" s="116"/>
       <c r="Z15" s="116"/>
       <c r="AA15" s="116"/>
-      <c r="AB15" s="305" t="s">
+      <c r="AB15" s="303" t="s">
         <v>356</v>
       </c>
       <c r="AC15" s="116"/>
@@ -27844,7 +27842,7 @@
       <c r="BG15" s="107"/>
       <c r="BH15" s="107"/>
       <c r="BI15" s="107"/>
-      <c r="BJ15" s="309" t="s">
+      <c r="BJ15" s="307" t="s">
         <v>376</v>
       </c>
       <c r="BK15" s="107"/>
@@ -27862,30 +27860,30 @@
       <c r="E16" s="36"/>
       <c r="F16" s="115"/>
       <c r="G16" s="116"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
-      <c r="J16" s="303" t="s">
+      <c r="H16" s="301"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="303"/>
-      <c r="L16" s="303"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="303"/>
-      <c r="O16" s="303"/>
-      <c r="P16" s="303"/>
-      <c r="Q16" s="303"/>
-      <c r="R16" s="303"/>
-      <c r="S16" s="303"/>
-      <c r="T16" s="303"/>
-      <c r="U16" s="303"/>
-      <c r="V16" s="303"/>
-      <c r="W16" s="303"/>
-      <c r="X16" s="303"/>
-      <c r="Y16" s="303"/>
-      <c r="Z16" s="303"/>
-      <c r="AA16" s="303"/>
-      <c r="AB16" s="303"/>
-      <c r="AC16" s="303"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
+      <c r="Y16" s="301"/>
+      <c r="Z16" s="301"/>
+      <c r="AA16" s="301"/>
+      <c r="AB16" s="301"/>
+      <c r="AC16" s="301"/>
       <c r="AD16" s="116"/>
       <c r="AE16" s="117"/>
       <c r="AF16" s="36"/>
@@ -27896,30 +27894,30 @@
       <c r="AM16" s="36"/>
       <c r="AN16" s="106"/>
       <c r="AO16" s="107"/>
-      <c r="AP16" s="310"/>
-      <c r="AQ16" s="310"/>
-      <c r="AR16" s="310" t="s">
+      <c r="AP16" s="308"/>
+      <c r="AQ16" s="308"/>
+      <c r="AR16" s="308" t="s">
         <v>149</v>
       </c>
-      <c r="AS16" s="310"/>
-      <c r="AT16" s="310"/>
-      <c r="AU16" s="310"/>
-      <c r="AV16" s="310"/>
-      <c r="AW16" s="310"/>
-      <c r="AX16" s="310"/>
-      <c r="AY16" s="310"/>
-      <c r="AZ16" s="310"/>
-      <c r="BA16" s="310"/>
-      <c r="BB16" s="310"/>
-      <c r="BC16" s="310"/>
-      <c r="BD16" s="310"/>
-      <c r="BE16" s="310"/>
-      <c r="BF16" s="310"/>
-      <c r="BG16" s="310"/>
-      <c r="BH16" s="310"/>
-      <c r="BI16" s="310"/>
-      <c r="BJ16" s="310"/>
-      <c r="BK16" s="310"/>
+      <c r="AS16" s="308"/>
+      <c r="AT16" s="308"/>
+      <c r="AU16" s="308"/>
+      <c r="AV16" s="308"/>
+      <c r="AW16" s="308"/>
+      <c r="AX16" s="308"/>
+      <c r="AY16" s="308"/>
+      <c r="AZ16" s="308"/>
+      <c r="BA16" s="308"/>
+      <c r="BB16" s="308"/>
+      <c r="BC16" s="308"/>
+      <c r="BD16" s="308"/>
+      <c r="BE16" s="308"/>
+      <c r="BF16" s="308"/>
+      <c r="BG16" s="308"/>
+      <c r="BH16" s="308"/>
+      <c r="BI16" s="308"/>
+      <c r="BJ16" s="308"/>
+      <c r="BK16" s="308"/>
       <c r="BL16" s="107"/>
       <c r="BM16" s="108"/>
       <c r="BN16" s="36"/>
@@ -27932,28 +27930,28 @@
       <c r="E17" s="36"/>
       <c r="F17" s="115"/>
       <c r="G17" s="116"/>
-      <c r="H17" s="304"/>
-      <c r="I17" s="304"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
-      <c r="L17" s="304"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="304"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
-      <c r="U17" s="304"/>
-      <c r="V17" s="304"/>
-      <c r="W17" s="304"/>
-      <c r="X17" s="304"/>
-      <c r="Y17" s="304"/>
-      <c r="Z17" s="304"/>
-      <c r="AA17" s="304"/>
-      <c r="AB17" s="304"/>
-      <c r="AC17" s="304"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302"/>
+      <c r="M17" s="302"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="302"/>
+      <c r="Q17" s="302"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="302"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="302"/>
+      <c r="Z17" s="302"/>
+      <c r="AA17" s="302"/>
+      <c r="AB17" s="302"/>
+      <c r="AC17" s="302"/>
       <c r="AD17" s="116"/>
       <c r="AE17" s="117"/>
       <c r="AF17" s="36"/>
@@ -27964,28 +27962,28 @@
       <c r="AM17" s="36"/>
       <c r="AN17" s="115"/>
       <c r="AO17" s="116"/>
-      <c r="AP17" s="304"/>
-      <c r="AQ17" s="304"/>
-      <c r="AR17" s="304"/>
-      <c r="AS17" s="304"/>
-      <c r="AT17" s="304"/>
-      <c r="AU17" s="304"/>
-      <c r="AV17" s="304"/>
-      <c r="AW17" s="304"/>
-      <c r="AX17" s="304"/>
-      <c r="AY17" s="304"/>
-      <c r="AZ17" s="304"/>
-      <c r="BA17" s="304"/>
-      <c r="BB17" s="304"/>
-      <c r="BC17" s="304"/>
-      <c r="BD17" s="304"/>
-      <c r="BE17" s="304"/>
-      <c r="BF17" s="304"/>
-      <c r="BG17" s="304"/>
-      <c r="BH17" s="304"/>
-      <c r="BI17" s="304"/>
-      <c r="BJ17" s="304"/>
-      <c r="BK17" s="304"/>
+      <c r="AP17" s="302"/>
+      <c r="AQ17" s="302"/>
+      <c r="AR17" s="302"/>
+      <c r="AS17" s="302"/>
+      <c r="AT17" s="302"/>
+      <c r="AU17" s="302"/>
+      <c r="AV17" s="302"/>
+      <c r="AW17" s="302"/>
+      <c r="AX17" s="302"/>
+      <c r="AY17" s="302"/>
+      <c r="AZ17" s="302"/>
+      <c r="BA17" s="302"/>
+      <c r="BB17" s="302"/>
+      <c r="BC17" s="302"/>
+      <c r="BD17" s="302"/>
+      <c r="BE17" s="302"/>
+      <c r="BF17" s="302"/>
+      <c r="BG17" s="302"/>
+      <c r="BH17" s="302"/>
+      <c r="BI17" s="302"/>
+      <c r="BJ17" s="302"/>
+      <c r="BK17" s="302"/>
       <c r="BL17" s="116"/>
       <c r="BM17" s="117"/>
       <c r="BN17" s="36"/>
@@ -28064,28 +28062,28 @@
       <c r="E19" s="36"/>
       <c r="F19" s="115"/>
       <c r="G19" s="116"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="303"/>
-      <c r="O19" s="303"/>
-      <c r="P19" s="303"/>
-      <c r="Q19" s="303"/>
-      <c r="R19" s="303"/>
-      <c r="S19" s="303"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="303"/>
-      <c r="V19" s="303"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="303"/>
-      <c r="Y19" s="303"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="303"/>
-      <c r="AB19" s="303"/>
-      <c r="AC19" s="303"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
+      <c r="T19" s="301"/>
+      <c r="U19" s="301"/>
+      <c r="V19" s="301"/>
+      <c r="W19" s="301"/>
+      <c r="X19" s="301"/>
+      <c r="Y19" s="301"/>
+      <c r="Z19" s="301"/>
+      <c r="AA19" s="301"/>
+      <c r="AB19" s="301"/>
+      <c r="AC19" s="301"/>
       <c r="AD19" s="116"/>
       <c r="AE19" s="117"/>
       <c r="AF19" s="36"/>
@@ -28096,28 +28094,28 @@
       <c r="AM19" s="36"/>
       <c r="AN19" s="115"/>
       <c r="AO19" s="116"/>
-      <c r="AP19" s="303"/>
-      <c r="AQ19" s="303"/>
-      <c r="AR19" s="303"/>
-      <c r="AS19" s="303"/>
-      <c r="AT19" s="303"/>
-      <c r="AU19" s="303"/>
-      <c r="AV19" s="303"/>
-      <c r="AW19" s="303"/>
-      <c r="AX19" s="303"/>
-      <c r="AY19" s="303"/>
-      <c r="AZ19" s="303"/>
-      <c r="BA19" s="303"/>
-      <c r="BB19" s="303"/>
-      <c r="BC19" s="303"/>
-      <c r="BD19" s="303"/>
-      <c r="BE19" s="303"/>
-      <c r="BF19" s="303"/>
-      <c r="BG19" s="303"/>
-      <c r="BH19" s="303"/>
-      <c r="BI19" s="303"/>
-      <c r="BJ19" s="303"/>
-      <c r="BK19" s="303"/>
+      <c r="AP19" s="301"/>
+      <c r="AQ19" s="301"/>
+      <c r="AR19" s="301"/>
+      <c r="AS19" s="301"/>
+      <c r="AT19" s="301"/>
+      <c r="AU19" s="301"/>
+      <c r="AV19" s="301"/>
+      <c r="AW19" s="301"/>
+      <c r="AX19" s="301"/>
+      <c r="AY19" s="301"/>
+      <c r="AZ19" s="301"/>
+      <c r="BA19" s="301"/>
+      <c r="BB19" s="301"/>
+      <c r="BC19" s="301"/>
+      <c r="BD19" s="301"/>
+      <c r="BE19" s="301"/>
+      <c r="BF19" s="301"/>
+      <c r="BG19" s="301"/>
+      <c r="BH19" s="301"/>
+      <c r="BI19" s="301"/>
+      <c r="BJ19" s="301"/>
+      <c r="BK19" s="301"/>
       <c r="BL19" s="116"/>
       <c r="BM19" s="117"/>
       <c r="BN19" s="36"/>
@@ -28231,6 +28229,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28315,28 +28314,28 @@
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
-      <c r="Q4" s="328" t="s">
+      <c r="Q4" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="R4" s="329"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="331" t="s">
+      <c r="R4" s="327"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="329" t="s">
         <v>129</v>
       </c>
       <c r="U4" s="66"/>
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
-      <c r="X4" s="332"/>
+      <c r="X4" s="330"/>
       <c r="Y4" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z4" s="101"/>
       <c r="AA4" s="102"/>
-      <c r="AB4" s="333" t="s">
+      <c r="AB4" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="AC4" s="334"/>
-      <c r="AD4" s="335"/>
+      <c r="AC4" s="332"/>
+      <c r="AD4" s="333"/>
       <c r="AE4" s="53" t="s">
         <v>97</v>
       </c>
@@ -28348,32 +28347,32 @@
       <c r="C5" s="32"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-      <c r="N5" s="319"/>
-      <c r="O5" s="319"/>
-      <c r="P5" s="319"/>
-      <c r="Q5" s="319"/>
-      <c r="R5" s="319"/>
-      <c r="S5" s="319"/>
-      <c r="T5" s="319"/>
-      <c r="U5" s="319"/>
-      <c r="V5" s="319"/>
-      <c r="W5" s="319"/>
-      <c r="X5" s="319"/>
-      <c r="Y5" s="319"/>
-      <c r="Z5" s="319"/>
-      <c r="AA5" s="319"/>
-      <c r="AB5" s="319"/>
-      <c r="AC5" s="319"/>
-      <c r="AD5" s="319"/>
-      <c r="AE5" s="320"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="317"/>
+      <c r="S5" s="317"/>
+      <c r="T5" s="317"/>
+      <c r="U5" s="317"/>
+      <c r="V5" s="317"/>
+      <c r="W5" s="317"/>
+      <c r="X5" s="317"/>
+      <c r="Y5" s="317"/>
+      <c r="Z5" s="317"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="317"/>
+      <c r="AC5" s="317"/>
+      <c r="AD5" s="317"/>
+      <c r="AE5" s="318"/>
       <c r="AF5" s="33"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="95"/>
@@ -28383,35 +28382,35 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="300"/>
-      <c r="G6" s="326" t="s">
+      <c r="G6" s="324" t="s">
         <v>379</v>
       </c>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
-      <c r="L6" s="326"/>
-      <c r="M6" s="326"/>
-      <c r="N6" s="326"/>
-      <c r="O6" s="326"/>
-      <c r="P6" s="326"/>
-      <c r="Q6" s="326"/>
-      <c r="R6" s="326"/>
-      <c r="S6" s="326"/>
-      <c r="T6" s="326"/>
-      <c r="U6" s="326"/>
-      <c r="V6" s="326"/>
-      <c r="W6" s="326"/>
-      <c r="X6" s="326"/>
-      <c r="Y6" s="326"/>
-      <c r="Z6" s="326"/>
-      <c r="AA6" s="326"/>
-      <c r="AB6" s="326" t="s">
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="324"/>
+      <c r="T6" s="324"/>
+      <c r="U6" s="324"/>
+      <c r="V6" s="324"/>
+      <c r="W6" s="324"/>
+      <c r="X6" s="324"/>
+      <c r="Y6" s="324"/>
+      <c r="Z6" s="324"/>
+      <c r="AA6" s="324"/>
+      <c r="AB6" s="324" t="s">
         <v>385</v>
       </c>
-      <c r="AC6" s="326"/>
-      <c r="AD6" s="326"/>
-      <c r="AE6" s="322"/>
+      <c r="AC6" s="324"/>
+      <c r="AD6" s="324"/>
+      <c r="AE6" s="320"/>
       <c r="AF6" s="36"/>
       <c r="AG6" s="36"/>
       <c r="AH6" s="97"/>
@@ -28421,35 +28420,35 @@
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="300"/>
-      <c r="G7" s="321"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321" t="s">
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="321"/>
-      <c r="M7" s="321"/>
-      <c r="N7" s="321"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="321"/>
-      <c r="Q7" s="321"/>
-      <c r="R7" s="321"/>
-      <c r="S7" s="321"/>
-      <c r="T7" s="321"/>
-      <c r="U7" s="321"/>
-      <c r="V7" s="321"/>
-      <c r="W7" s="321"/>
-      <c r="X7" s="321"/>
-      <c r="Y7" s="321"/>
-      <c r="Z7" s="321" t="s">
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="319"/>
+      <c r="N7" s="319"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="319"/>
+      <c r="Q7" s="319"/>
+      <c r="R7" s="319"/>
+      <c r="S7" s="319"/>
+      <c r="T7" s="319"/>
+      <c r="U7" s="319"/>
+      <c r="V7" s="319"/>
+      <c r="W7" s="319"/>
+      <c r="X7" s="319"/>
+      <c r="Y7" s="319"/>
+      <c r="Z7" s="319" t="s">
         <v>381</v>
       </c>
-      <c r="AA7" s="321"/>
-      <c r="AB7" s="321"/>
-      <c r="AC7" s="321"/>
-      <c r="AD7" s="321"/>
-      <c r="AE7" s="322"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="319"/>
+      <c r="AD7" s="319"/>
+      <c r="AE7" s="320"/>
       <c r="AF7" s="36"/>
       <c r="AG7" s="36"/>
       <c r="AH7" s="93"/>
@@ -28459,31 +28458,31 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="300"/>
-      <c r="G8" s="327"/>
-      <c r="H8" s="327"/>
-      <c r="I8" s="327"/>
-      <c r="J8" s="327"/>
-      <c r="K8" s="327"/>
-      <c r="L8" s="327"/>
-      <c r="M8" s="327"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="327"/>
-      <c r="T8" s="327"/>
-      <c r="U8" s="327"/>
-      <c r="V8" s="327"/>
-      <c r="W8" s="327"/>
-      <c r="X8" s="327"/>
-      <c r="Y8" s="327"/>
-      <c r="Z8" s="327"/>
-      <c r="AA8" s="327"/>
-      <c r="AB8" s="327"/>
-      <c r="AC8" s="327"/>
-      <c r="AD8" s="327"/>
-      <c r="AE8" s="322"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="325"/>
+      <c r="N8" s="334"/>
+      <c r="O8" s="334"/>
+      <c r="P8" s="334"/>
+      <c r="Q8" s="334"/>
+      <c r="R8" s="334"/>
+      <c r="S8" s="325"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="325"/>
+      <c r="V8" s="325"/>
+      <c r="W8" s="325"/>
+      <c r="X8" s="325"/>
+      <c r="Y8" s="325"/>
+      <c r="Z8" s="325"/>
+      <c r="AA8" s="325"/>
+      <c r="AB8" s="325"/>
+      <c r="AC8" s="325"/>
+      <c r="AD8" s="325"/>
+      <c r="AE8" s="320"/>
       <c r="AF8" s="36"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="93"/>
@@ -28493,35 +28492,35 @@
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="300"/>
-      <c r="G9" s="326" t="s">
+      <c r="G9" s="324" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="326"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="326"/>
-      <c r="K9" s="326"/>
-      <c r="L9" s="326"/>
-      <c r="M9" s="326"/>
-      <c r="N9" s="326"/>
-      <c r="O9" s="326"/>
-      <c r="P9" s="326"/>
-      <c r="Q9" s="326"/>
-      <c r="R9" s="326"/>
-      <c r="S9" s="326"/>
-      <c r="T9" s="326"/>
-      <c r="U9" s="326"/>
-      <c r="V9" s="326"/>
-      <c r="W9" s="326"/>
-      <c r="X9" s="326"/>
-      <c r="Y9" s="326"/>
-      <c r="Z9" s="326"/>
-      <c r="AA9" s="326"/>
-      <c r="AB9" s="326" t="s">
+      <c r="H9" s="324"/>
+      <c r="I9" s="324"/>
+      <c r="J9" s="324"/>
+      <c r="K9" s="324"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="324"/>
+      <c r="O9" s="324"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="324"/>
+      <c r="R9" s="324"/>
+      <c r="S9" s="324"/>
+      <c r="T9" s="324"/>
+      <c r="U9" s="324"/>
+      <c r="V9" s="324"/>
+      <c r="W9" s="324"/>
+      <c r="X9" s="324"/>
+      <c r="Y9" s="324"/>
+      <c r="Z9" s="324"/>
+      <c r="AA9" s="324"/>
+      <c r="AB9" s="324" t="s">
         <v>385</v>
       </c>
-      <c r="AC9" s="326"/>
-      <c r="AD9" s="326"/>
-      <c r="AE9" s="322"/>
+      <c r="AC9" s="324"/>
+      <c r="AD9" s="324"/>
+      <c r="AE9" s="320"/>
       <c r="AF9" s="36"/>
       <c r="AG9" s="36"/>
       <c r="AH9" s="93"/>
@@ -28531,35 +28530,35 @@
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="300"/>
-      <c r="G10" s="321"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="321" t="s">
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="319" t="s">
         <v>383</v>
       </c>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
-      <c r="M10" s="321"/>
-      <c r="N10" s="321"/>
-      <c r="O10" s="321"/>
-      <c r="P10" s="321"/>
-      <c r="Q10" s="321"/>
-      <c r="R10" s="321"/>
-      <c r="S10" s="321"/>
-      <c r="T10" s="321"/>
-      <c r="U10" s="321"/>
-      <c r="V10" s="321"/>
-      <c r="W10" s="321"/>
-      <c r="X10" s="321"/>
-      <c r="Y10" s="321"/>
-      <c r="Z10" s="321" t="s">
+      <c r="J10" s="319"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="319"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="319"/>
+      <c r="O10" s="319"/>
+      <c r="P10" s="319"/>
+      <c r="Q10" s="319"/>
+      <c r="R10" s="319"/>
+      <c r="S10" s="319"/>
+      <c r="T10" s="319"/>
+      <c r="U10" s="319"/>
+      <c r="V10" s="319"/>
+      <c r="W10" s="319"/>
+      <c r="X10" s="319"/>
+      <c r="Y10" s="319"/>
+      <c r="Z10" s="319" t="s">
         <v>384</v>
       </c>
-      <c r="AA10" s="321"/>
-      <c r="AB10" s="321"/>
-      <c r="AC10" s="321"/>
-      <c r="AD10" s="321"/>
-      <c r="AE10" s="322"/>
+      <c r="AA10" s="319"/>
+      <c r="AB10" s="319"/>
+      <c r="AC10" s="319"/>
+      <c r="AD10" s="319"/>
+      <c r="AE10" s="320"/>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="93"/>
@@ -28569,31 +28568,31 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="300"/>
-      <c r="G11" s="327"/>
-      <c r="H11" s="327"/>
-      <c r="I11" s="327"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="327"/>
-      <c r="L11" s="327"/>
-      <c r="M11" s="327"/>
-      <c r="N11" s="336"/>
-      <c r="O11" s="336"/>
-      <c r="P11" s="336"/>
-      <c r="Q11" s="336"/>
-      <c r="R11" s="336"/>
-      <c r="S11" s="327"/>
-      <c r="T11" s="327"/>
-      <c r="U11" s="327"/>
-      <c r="V11" s="327"/>
-      <c r="W11" s="327"/>
-      <c r="X11" s="327"/>
-      <c r="Y11" s="327"/>
-      <c r="Z11" s="327"/>
-      <c r="AA11" s="327"/>
-      <c r="AB11" s="327"/>
-      <c r="AC11" s="327"/>
-      <c r="AD11" s="327"/>
-      <c r="AE11" s="322"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="325"/>
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
+      <c r="L11" s="325"/>
+      <c r="M11" s="325"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="334"/>
+      <c r="Q11" s="334"/>
+      <c r="R11" s="334"/>
+      <c r="S11" s="325"/>
+      <c r="T11" s="325"/>
+      <c r="U11" s="325"/>
+      <c r="V11" s="325"/>
+      <c r="W11" s="325"/>
+      <c r="X11" s="325"/>
+      <c r="Y11" s="325"/>
+      <c r="Z11" s="325"/>
+      <c r="AA11" s="325"/>
+      <c r="AB11" s="325"/>
+      <c r="AC11" s="325"/>
+      <c r="AD11" s="325"/>
+      <c r="AE11" s="320"/>
       <c r="AF11" s="36"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="93"/>
@@ -28603,31 +28602,31 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="300"/>
-      <c r="G12" s="326"/>
-      <c r="H12" s="326"/>
-      <c r="I12" s="326"/>
-      <c r="J12" s="326"/>
-      <c r="K12" s="326"/>
-      <c r="L12" s="326"/>
-      <c r="M12" s="326"/>
-      <c r="N12" s="326"/>
-      <c r="O12" s="326"/>
-      <c r="P12" s="326"/>
-      <c r="Q12" s="326"/>
-      <c r="R12" s="326"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="326"/>
-      <c r="U12" s="326"/>
-      <c r="V12" s="326"/>
-      <c r="W12" s="326"/>
-      <c r="X12" s="326"/>
-      <c r="Y12" s="326"/>
-      <c r="Z12" s="326"/>
-      <c r="AA12" s="326"/>
-      <c r="AB12" s="326"/>
-      <c r="AC12" s="326"/>
-      <c r="AD12" s="326"/>
-      <c r="AE12" s="322"/>
+      <c r="G12" s="324"/>
+      <c r="H12" s="324"/>
+      <c r="I12" s="324"/>
+      <c r="J12" s="324"/>
+      <c r="K12" s="324"/>
+      <c r="L12" s="324"/>
+      <c r="M12" s="324"/>
+      <c r="N12" s="324"/>
+      <c r="O12" s="324"/>
+      <c r="P12" s="324"/>
+      <c r="Q12" s="324"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="324"/>
+      <c r="T12" s="324"/>
+      <c r="U12" s="324"/>
+      <c r="V12" s="324"/>
+      <c r="W12" s="324"/>
+      <c r="X12" s="324"/>
+      <c r="Y12" s="324"/>
+      <c r="Z12" s="324"/>
+      <c r="AA12" s="324"/>
+      <c r="AB12" s="324"/>
+      <c r="AC12" s="324"/>
+      <c r="AD12" s="324"/>
+      <c r="AE12" s="320"/>
       <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="93"/>
@@ -28637,31 +28636,31 @@
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="300"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="321"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="321"/>
-      <c r="P13" s="321"/>
-      <c r="Q13" s="321"/>
-      <c r="R13" s="321"/>
-      <c r="S13" s="321"/>
-      <c r="T13" s="321"/>
-      <c r="U13" s="321"/>
-      <c r="V13" s="321"/>
-      <c r="W13" s="321"/>
-      <c r="X13" s="321"/>
-      <c r="Y13" s="321"/>
-      <c r="Z13" s="321"/>
-      <c r="AA13" s="321"/>
-      <c r="AB13" s="321"/>
-      <c r="AC13" s="321"/>
-      <c r="AD13" s="321"/>
-      <c r="AE13" s="322"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
+      <c r="N13" s="319"/>
+      <c r="O13" s="319"/>
+      <c r="P13" s="319"/>
+      <c r="Q13" s="319"/>
+      <c r="R13" s="319"/>
+      <c r="S13" s="319"/>
+      <c r="T13" s="319"/>
+      <c r="U13" s="319"/>
+      <c r="V13" s="319"/>
+      <c r="W13" s="319"/>
+      <c r="X13" s="319"/>
+      <c r="Y13" s="319"/>
+      <c r="Z13" s="319"/>
+      <c r="AA13" s="319"/>
+      <c r="AB13" s="319"/>
+      <c r="AC13" s="319"/>
+      <c r="AD13" s="319"/>
+      <c r="AE13" s="320"/>
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="93"/>
@@ -28671,31 +28670,31 @@
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="300"/>
-      <c r="G14" s="327"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="327"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="327"/>
-      <c r="L14" s="327"/>
-      <c r="M14" s="327"/>
-      <c r="N14" s="336"/>
-      <c r="O14" s="336"/>
-      <c r="P14" s="336"/>
-      <c r="Q14" s="336"/>
-      <c r="R14" s="336"/>
-      <c r="S14" s="327"/>
-      <c r="T14" s="327"/>
-      <c r="U14" s="327"/>
-      <c r="V14" s="327"/>
-      <c r="W14" s="327"/>
-      <c r="X14" s="327"/>
-      <c r="Y14" s="327"/>
-      <c r="Z14" s="327"/>
-      <c r="AA14" s="327"/>
-      <c r="AB14" s="327"/>
-      <c r="AC14" s="327"/>
-      <c r="AD14" s="327"/>
-      <c r="AE14" s="322"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="325"/>
+      <c r="N14" s="334"/>
+      <c r="O14" s="334"/>
+      <c r="P14" s="334"/>
+      <c r="Q14" s="334"/>
+      <c r="R14" s="334"/>
+      <c r="S14" s="325"/>
+      <c r="T14" s="325"/>
+      <c r="U14" s="325"/>
+      <c r="V14" s="325"/>
+      <c r="W14" s="325"/>
+      <c r="X14" s="325"/>
+      <c r="Y14" s="325"/>
+      <c r="Z14" s="325"/>
+      <c r="AA14" s="325"/>
+      <c r="AB14" s="325"/>
+      <c r="AC14" s="325"/>
+      <c r="AD14" s="325"/>
+      <c r="AE14" s="320"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="93"/>
@@ -28705,31 +28704,31 @@
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="300"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
-      <c r="I15" s="326"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="326"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="326"/>
-      <c r="N15" s="326"/>
-      <c r="O15" s="326"/>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
-      <c r="AC15" s="326"/>
-      <c r="AD15" s="326"/>
-      <c r="AE15" s="322"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="324"/>
+      <c r="I15" s="324"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
+      <c r="N15" s="324"/>
+      <c r="O15" s="324"/>
+      <c r="P15" s="324"/>
+      <c r="Q15" s="324"/>
+      <c r="R15" s="324"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="324"/>
+      <c r="U15" s="324"/>
+      <c r="V15" s="324"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="324"/>
+      <c r="Z15" s="324"/>
+      <c r="AA15" s="324"/>
+      <c r="AB15" s="324"/>
+      <c r="AC15" s="324"/>
+      <c r="AD15" s="324"/>
+      <c r="AE15" s="320"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="93"/>
@@ -28739,31 +28738,31 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="300"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="321"/>
-      <c r="I16" s="321"/>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
-      <c r="P16" s="321"/>
-      <c r="Q16" s="321"/>
-      <c r="R16" s="321"/>
-      <c r="S16" s="321"/>
-      <c r="T16" s="321"/>
-      <c r="U16" s="321"/>
-      <c r="V16" s="321"/>
-      <c r="W16" s="321"/>
-      <c r="X16" s="321"/>
-      <c r="Y16" s="321"/>
-      <c r="Z16" s="321"/>
-      <c r="AA16" s="321"/>
-      <c r="AB16" s="321"/>
-      <c r="AC16" s="321"/>
-      <c r="AD16" s="321"/>
-      <c r="AE16" s="322"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="319"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="319"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="319"/>
+      <c r="O16" s="319"/>
+      <c r="P16" s="319"/>
+      <c r="Q16" s="319"/>
+      <c r="R16" s="319"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="319"/>
+      <c r="U16" s="319"/>
+      <c r="V16" s="319"/>
+      <c r="W16" s="319"/>
+      <c r="X16" s="319"/>
+      <c r="Y16" s="319"/>
+      <c r="Z16" s="319"/>
+      <c r="AA16" s="319"/>
+      <c r="AB16" s="319"/>
+      <c r="AC16" s="319"/>
+      <c r="AD16" s="319"/>
+      <c r="AE16" s="320"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="93"/>
@@ -28773,31 +28772,31 @@
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="300"/>
-      <c r="G17" s="327"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="327"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="327"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="336"/>
-      <c r="O17" s="336"/>
-      <c r="P17" s="336"/>
-      <c r="Q17" s="336"/>
-      <c r="R17" s="336"/>
-      <c r="S17" s="327"/>
-      <c r="T17" s="327"/>
-      <c r="U17" s="327"/>
-      <c r="V17" s="327"/>
-      <c r="W17" s="327"/>
-      <c r="X17" s="327"/>
-      <c r="Y17" s="327"/>
-      <c r="Z17" s="327"/>
-      <c r="AA17" s="327"/>
-      <c r="AB17" s="327"/>
-      <c r="AC17" s="327"/>
-      <c r="AD17" s="327"/>
-      <c r="AE17" s="322"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="334"/>
+      <c r="O17" s="334"/>
+      <c r="P17" s="334"/>
+      <c r="Q17" s="334"/>
+      <c r="R17" s="334"/>
+      <c r="S17" s="325"/>
+      <c r="T17" s="325"/>
+      <c r="U17" s="325"/>
+      <c r="V17" s="325"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="325"/>
+      <c r="AC17" s="325"/>
+      <c r="AD17" s="325"/>
+      <c r="AE17" s="320"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="93"/>
@@ -28807,31 +28806,31 @@
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="300"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="321"/>
-      <c r="I18" s="321"/>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="321"/>
-      <c r="M18" s="321"/>
-      <c r="N18" s="321"/>
-      <c r="O18" s="321"/>
-      <c r="P18" s="321"/>
-      <c r="Q18" s="321"/>
-      <c r="R18" s="321"/>
-      <c r="S18" s="321"/>
-      <c r="T18" s="321"/>
-      <c r="U18" s="321"/>
-      <c r="V18" s="321"/>
-      <c r="W18" s="321"/>
-      <c r="X18" s="321"/>
-      <c r="Y18" s="321"/>
-      <c r="Z18" s="321"/>
-      <c r="AA18" s="321"/>
-      <c r="AB18" s="321"/>
-      <c r="AC18" s="321"/>
-      <c r="AD18" s="321"/>
-      <c r="AE18" s="322"/>
+      <c r="G18" s="319"/>
+      <c r="H18" s="319"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="319"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="319"/>
+      <c r="M18" s="319"/>
+      <c r="N18" s="319"/>
+      <c r="O18" s="319"/>
+      <c r="P18" s="319"/>
+      <c r="Q18" s="319"/>
+      <c r="R18" s="319"/>
+      <c r="S18" s="319"/>
+      <c r="T18" s="319"/>
+      <c r="U18" s="319"/>
+      <c r="V18" s="319"/>
+      <c r="W18" s="319"/>
+      <c r="X18" s="319"/>
+      <c r="Y18" s="319"/>
+      <c r="Z18" s="319"/>
+      <c r="AA18" s="319"/>
+      <c r="AB18" s="319"/>
+      <c r="AC18" s="319"/>
+      <c r="AD18" s="319"/>
+      <c r="AE18" s="320"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="93"/>
@@ -28841,31 +28840,31 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="300"/>
-      <c r="G19" s="321"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="321"/>
-      <c r="J19" s="321"/>
-      <c r="K19" s="321"/>
-      <c r="L19" s="321"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="321"/>
-      <c r="Q19" s="321"/>
-      <c r="R19" s="321"/>
-      <c r="S19" s="321"/>
-      <c r="T19" s="321"/>
-      <c r="U19" s="321"/>
-      <c r="V19" s="321"/>
-      <c r="W19" s="321"/>
-      <c r="X19" s="321"/>
-      <c r="Y19" s="321"/>
-      <c r="Z19" s="321"/>
-      <c r="AA19" s="321"/>
-      <c r="AB19" s="321"/>
-      <c r="AC19" s="321"/>
-      <c r="AD19" s="321"/>
-      <c r="AE19" s="322"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="319"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+      <c r="N19" s="319"/>
+      <c r="O19" s="319"/>
+      <c r="P19" s="319"/>
+      <c r="Q19" s="319"/>
+      <c r="R19" s="319"/>
+      <c r="S19" s="319"/>
+      <c r="T19" s="319"/>
+      <c r="U19" s="319"/>
+      <c r="V19" s="319"/>
+      <c r="W19" s="319"/>
+      <c r="X19" s="319"/>
+      <c r="Y19" s="319"/>
+      <c r="Z19" s="319"/>
+      <c r="AA19" s="319"/>
+      <c r="AB19" s="319"/>
+      <c r="AC19" s="319"/>
+      <c r="AD19" s="319"/>
+      <c r="AE19" s="320"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="93"/>
@@ -28874,32 +28873,32 @@
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="323"/>
-      <c r="G20" s="324"/>
-      <c r="H20" s="324"/>
-      <c r="I20" s="324"/>
-      <c r="J20" s="324"/>
-      <c r="K20" s="324"/>
-      <c r="L20" s="324"/>
-      <c r="M20" s="324"/>
-      <c r="N20" s="324"/>
-      <c r="O20" s="324"/>
-      <c r="P20" s="324"/>
-      <c r="Q20" s="324"/>
-      <c r="R20" s="324"/>
-      <c r="S20" s="324"/>
-      <c r="T20" s="324"/>
-      <c r="U20" s="324"/>
-      <c r="V20" s="324"/>
-      <c r="W20" s="324"/>
-      <c r="X20" s="324"/>
-      <c r="Y20" s="324"/>
-      <c r="Z20" s="324"/>
-      <c r="AA20" s="324"/>
-      <c r="AB20" s="324"/>
-      <c r="AC20" s="324"/>
-      <c r="AD20" s="324"/>
-      <c r="AE20" s="325"/>
+      <c r="F20" s="321"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="322"/>
+      <c r="N20" s="322"/>
+      <c r="O20" s="322"/>
+      <c r="P20" s="322"/>
+      <c r="Q20" s="322"/>
+      <c r="R20" s="322"/>
+      <c r="S20" s="322"/>
+      <c r="T20" s="322"/>
+      <c r="U20" s="322"/>
+      <c r="V20" s="322"/>
+      <c r="W20" s="322"/>
+      <c r="X20" s="322"/>
+      <c r="Y20" s="322"/>
+      <c r="Z20" s="322"/>
+      <c r="AA20" s="322"/>
+      <c r="AB20" s="322"/>
+      <c r="AC20" s="322"/>
+      <c r="AD20" s="322"/>
+      <c r="AE20" s="323"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
       <c r="AH20" s="94"/>
@@ -28974,28 +28973,28 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="328" t="s">
+      <c r="Q24" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="329"/>
-      <c r="S24" s="330"/>
-      <c r="T24" s="331" t="s">
+      <c r="R24" s="327"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="329" t="s">
         <v>129</v>
       </c>
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
-      <c r="X24" s="332"/>
+      <c r="X24" s="330"/>
       <c r="Y24" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z24" s="101"/>
       <c r="AA24" s="102"/>
-      <c r="AB24" s="333" t="s">
+      <c r="AB24" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="AC24" s="334"/>
-      <c r="AD24" s="335"/>
+      <c r="AC24" s="332"/>
+      <c r="AD24" s="333"/>
       <c r="AE24" s="53" t="s">
         <v>97</v>
       </c>
@@ -29007,32 +29006,32 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="319"/>
-      <c r="Q25" s="319"/>
-      <c r="R25" s="319"/>
-      <c r="S25" s="319"/>
-      <c r="T25" s="319"/>
-      <c r="U25" s="319"/>
-      <c r="V25" s="319"/>
-      <c r="W25" s="319"/>
-      <c r="X25" s="319"/>
-      <c r="Y25" s="319"/>
-      <c r="Z25" s="319"/>
-      <c r="AA25" s="319"/>
-      <c r="AB25" s="319"/>
-      <c r="AC25" s="319"/>
-      <c r="AD25" s="319"/>
-      <c r="AE25" s="320"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="317"/>
+      <c r="H25" s="317"/>
+      <c r="I25" s="317"/>
+      <c r="J25" s="317"/>
+      <c r="K25" s="317"/>
+      <c r="L25" s="317"/>
+      <c r="M25" s="317"/>
+      <c r="N25" s="317"/>
+      <c r="O25" s="317"/>
+      <c r="P25" s="317"/>
+      <c r="Q25" s="317"/>
+      <c r="R25" s="317"/>
+      <c r="S25" s="317"/>
+      <c r="T25" s="317"/>
+      <c r="U25" s="317"/>
+      <c r="V25" s="317"/>
+      <c r="W25" s="317"/>
+      <c r="X25" s="317"/>
+      <c r="Y25" s="317"/>
+      <c r="Z25" s="317"/>
+      <c r="AA25" s="317"/>
+      <c r="AB25" s="317"/>
+      <c r="AC25" s="317"/>
+      <c r="AD25" s="317"/>
+      <c r="AE25" s="318"/>
       <c r="AF25" s="33"/>
       <c r="AG25" s="33"/>
       <c r="AH25" s="95"/>
@@ -29042,39 +29041,39 @@
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="300"/>
-      <c r="G26" s="326" t="s">
+      <c r="G26" s="324" t="s">
         <v>379</v>
       </c>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="344" t="s">
+      <c r="H26" s="324"/>
+      <c r="I26" s="324"/>
+      <c r="J26" s="324"/>
+      <c r="K26" s="342" t="s">
         <v>390</v>
       </c>
-      <c r="L26" s="345"/>
-      <c r="M26" s="345"/>
-      <c r="N26" s="345"/>
-      <c r="O26" s="345"/>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="345"/>
-      <c r="R26" s="345"/>
-      <c r="S26" s="345"/>
-      <c r="T26" s="345"/>
-      <c r="U26" s="345"/>
-      <c r="V26" s="345"/>
-      <c r="W26" s="345"/>
-      <c r="X26" s="345"/>
-      <c r="Y26" s="345"/>
-      <c r="Z26" s="346" t="s">
+      <c r="L26" s="343"/>
+      <c r="M26" s="343"/>
+      <c r="N26" s="343"/>
+      <c r="O26" s="343"/>
+      <c r="P26" s="343"/>
+      <c r="Q26" s="343"/>
+      <c r="R26" s="343"/>
+      <c r="S26" s="343"/>
+      <c r="T26" s="343"/>
+      <c r="U26" s="343"/>
+      <c r="V26" s="343"/>
+      <c r="W26" s="343"/>
+      <c r="X26" s="343"/>
+      <c r="Y26" s="343"/>
+      <c r="Z26" s="344" t="s">
         <v>224</v>
       </c>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326" t="s">
+      <c r="AA26" s="324"/>
+      <c r="AB26" s="324" t="s">
         <v>385</v>
       </c>
-      <c r="AC26" s="326"/>
-      <c r="AD26" s="326"/>
-      <c r="AE26" s="322"/>
+      <c r="AC26" s="324"/>
+      <c r="AD26" s="324"/>
+      <c r="AE26" s="320"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="97"/>
@@ -29084,37 +29083,37 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="300"/>
-      <c r="G27" s="321"/>
-      <c r="H27" s="321"/>
-      <c r="I27" s="321" t="s">
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="319" t="s">
         <v>380</v>
       </c>
-      <c r="J27" s="321"/>
-      <c r="K27" s="337" t="s">
+      <c r="J27" s="319"/>
+      <c r="K27" s="335" t="s">
         <v>310</v>
       </c>
-      <c r="L27" s="338"/>
-      <c r="M27" s="338"/>
-      <c r="N27" s="338"/>
-      <c r="O27" s="338"/>
-      <c r="P27" s="338"/>
-      <c r="Q27" s="338"/>
-      <c r="R27" s="338"/>
-      <c r="S27" s="338"/>
-      <c r="T27" s="338"/>
-      <c r="U27" s="338"/>
-      <c r="V27" s="338"/>
-      <c r="W27" s="338"/>
-      <c r="X27" s="338"/>
-      <c r="Y27" s="338"/>
-      <c r="Z27" s="339"/>
-      <c r="AA27" s="321" t="s">
+      <c r="L27" s="336"/>
+      <c r="M27" s="336"/>
+      <c r="N27" s="336"/>
+      <c r="O27" s="336"/>
+      <c r="P27" s="336"/>
+      <c r="Q27" s="336"/>
+      <c r="R27" s="336"/>
+      <c r="S27" s="336"/>
+      <c r="T27" s="336"/>
+      <c r="U27" s="336"/>
+      <c r="V27" s="336"/>
+      <c r="W27" s="336"/>
+      <c r="X27" s="336"/>
+      <c r="Y27" s="336"/>
+      <c r="Z27" s="337"/>
+      <c r="AA27" s="319" t="s">
         <v>388</v>
       </c>
-      <c r="AB27" s="321"/>
-      <c r="AC27" s="321"/>
-      <c r="AD27" s="321"/>
-      <c r="AE27" s="322"/>
+      <c r="AB27" s="319"/>
+      <c r="AC27" s="319"/>
+      <c r="AD27" s="319"/>
+      <c r="AE27" s="320"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="36"/>
       <c r="AH27" s="93"/>
@@ -29124,33 +29123,33 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="300"/>
-      <c r="G28" s="327"/>
-      <c r="H28" s="327"/>
-      <c r="I28" s="327"/>
-      <c r="J28" s="327"/>
-      <c r="K28" s="337"/>
-      <c r="L28" s="311" t="s">
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="335"/>
+      <c r="L28" s="309" t="s">
         <v>391</v>
       </c>
-      <c r="M28" s="312"/>
-      <c r="N28" s="353"/>
-      <c r="O28" s="353"/>
-      <c r="P28" s="353"/>
-      <c r="Q28" s="353"/>
-      <c r="R28" s="353"/>
-      <c r="S28" s="312"/>
-      <c r="T28" s="312"/>
-      <c r="U28" s="312"/>
-      <c r="V28" s="312"/>
-      <c r="W28" s="312"/>
-      <c r="X28" s="312"/>
-      <c r="Y28" s="350"/>
-      <c r="Z28" s="339"/>
-      <c r="AA28" s="327"/>
-      <c r="AB28" s="327"/>
-      <c r="AC28" s="327"/>
-      <c r="AD28" s="327"/>
-      <c r="AE28" s="322"/>
+      <c r="M28" s="310"/>
+      <c r="N28" s="351"/>
+      <c r="O28" s="351"/>
+      <c r="P28" s="351"/>
+      <c r="Q28" s="351"/>
+      <c r="R28" s="351"/>
+      <c r="S28" s="310"/>
+      <c r="T28" s="310"/>
+      <c r="U28" s="310"/>
+      <c r="V28" s="310"/>
+      <c r="W28" s="310"/>
+      <c r="X28" s="310"/>
+      <c r="Y28" s="348"/>
+      <c r="Z28" s="337"/>
+      <c r="AA28" s="325"/>
+      <c r="AB28" s="325"/>
+      <c r="AC28" s="325"/>
+      <c r="AD28" s="325"/>
+      <c r="AE28" s="320"/>
       <c r="AF28" s="36"/>
       <c r="AG28" s="36"/>
       <c r="AH28" s="93"/>
@@ -29160,37 +29159,37 @@
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="300"/>
-      <c r="G29" s="326" t="s">
+      <c r="G29" s="324" t="s">
         <v>382</v>
       </c>
-      <c r="H29" s="326"/>
-      <c r="I29" s="326"/>
-      <c r="J29" s="326"/>
-      <c r="K29" s="337" t="s">
+      <c r="H29" s="324"/>
+      <c r="I29" s="324"/>
+      <c r="J29" s="324"/>
+      <c r="K29" s="335" t="s">
         <v>310</v>
       </c>
-      <c r="L29" s="313"/>
-      <c r="M29" s="314"/>
-      <c r="N29" s="314"/>
-      <c r="O29" s="314"/>
-      <c r="P29" s="314"/>
-      <c r="Q29" s="314"/>
-      <c r="R29" s="314"/>
-      <c r="S29" s="314"/>
-      <c r="T29" s="314"/>
-      <c r="U29" s="314"/>
-      <c r="V29" s="314"/>
-      <c r="W29" s="314"/>
-      <c r="X29" s="314"/>
-      <c r="Y29" s="352"/>
-      <c r="Z29" s="339"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="326" t="s">
+      <c r="L29" s="311"/>
+      <c r="M29" s="312"/>
+      <c r="N29" s="312"/>
+      <c r="O29" s="312"/>
+      <c r="P29" s="312"/>
+      <c r="Q29" s="312"/>
+      <c r="R29" s="312"/>
+      <c r="S29" s="312"/>
+      <c r="T29" s="312"/>
+      <c r="U29" s="312"/>
+      <c r="V29" s="312"/>
+      <c r="W29" s="312"/>
+      <c r="X29" s="312"/>
+      <c r="Y29" s="350"/>
+      <c r="Z29" s="337"/>
+      <c r="AA29" s="324"/>
+      <c r="AB29" s="324" t="s">
         <v>385</v>
       </c>
-      <c r="AC29" s="326"/>
-      <c r="AD29" s="326"/>
-      <c r="AE29" s="322"/>
+      <c r="AC29" s="324"/>
+      <c r="AD29" s="324"/>
+      <c r="AE29" s="320"/>
       <c r="AF29" s="36"/>
       <c r="AG29" s="36"/>
       <c r="AH29" s="93"/>
@@ -29200,37 +29199,37 @@
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="300"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="321" t="s">
+      <c r="G30" s="319"/>
+      <c r="H30" s="319"/>
+      <c r="I30" s="319" t="s">
         <v>383</v>
       </c>
-      <c r="J30" s="321"/>
-      <c r="K30" s="337" t="s">
+      <c r="J30" s="319"/>
+      <c r="K30" s="335" t="s">
         <v>310</v>
       </c>
-      <c r="L30" s="313"/>
-      <c r="M30" s="314"/>
-      <c r="N30" s="314"/>
-      <c r="O30" s="314"/>
-      <c r="P30" s="314"/>
-      <c r="Q30" s="314"/>
-      <c r="R30" s="314"/>
-      <c r="S30" s="314"/>
-      <c r="T30" s="314"/>
-      <c r="U30" s="314"/>
-      <c r="V30" s="314"/>
-      <c r="W30" s="314"/>
-      <c r="X30" s="314"/>
-      <c r="Y30" s="352"/>
-      <c r="Z30" s="339"/>
-      <c r="AA30" s="321" t="s">
+      <c r="L30" s="311"/>
+      <c r="M30" s="312"/>
+      <c r="N30" s="312"/>
+      <c r="O30" s="312"/>
+      <c r="P30" s="312"/>
+      <c r="Q30" s="312"/>
+      <c r="R30" s="312"/>
+      <c r="S30" s="312"/>
+      <c r="T30" s="312"/>
+      <c r="U30" s="312"/>
+      <c r="V30" s="312"/>
+      <c r="W30" s="312"/>
+      <c r="X30" s="312"/>
+      <c r="Y30" s="350"/>
+      <c r="Z30" s="337"/>
+      <c r="AA30" s="319" t="s">
         <v>389</v>
       </c>
-      <c r="AB30" s="321"/>
-      <c r="AC30" s="321"/>
-      <c r="AD30" s="321"/>
-      <c r="AE30" s="322"/>
+      <c r="AB30" s="319"/>
+      <c r="AC30" s="319"/>
+      <c r="AD30" s="319"/>
+      <c r="AE30" s="320"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="36"/>
       <c r="AH30" s="93"/>
@@ -29240,31 +29239,31 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="300"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="327"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="337"/>
-      <c r="L31" s="313"/>
-      <c r="M31" s="314"/>
-      <c r="N31" s="315"/>
-      <c r="O31" s="315"/>
-      <c r="P31" s="315"/>
-      <c r="Q31" s="315"/>
-      <c r="R31" s="315"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="314"/>
-      <c r="U31" s="314"/>
-      <c r="V31" s="314"/>
-      <c r="W31" s="314"/>
-      <c r="X31" s="314"/>
-      <c r="Y31" s="351"/>
-      <c r="Z31" s="339"/>
-      <c r="AA31" s="327"/>
-      <c r="AB31" s="327"/>
-      <c r="AC31" s="327"/>
-      <c r="AD31" s="327"/>
-      <c r="AE31" s="322"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="325"/>
+      <c r="I31" s="325"/>
+      <c r="J31" s="325"/>
+      <c r="K31" s="335"/>
+      <c r="L31" s="311"/>
+      <c r="M31" s="312"/>
+      <c r="N31" s="313"/>
+      <c r="O31" s="313"/>
+      <c r="P31" s="313"/>
+      <c r="Q31" s="313"/>
+      <c r="R31" s="313"/>
+      <c r="S31" s="312"/>
+      <c r="T31" s="312"/>
+      <c r="U31" s="312"/>
+      <c r="V31" s="312"/>
+      <c r="W31" s="312"/>
+      <c r="X31" s="312"/>
+      <c r="Y31" s="349"/>
+      <c r="Z31" s="337"/>
+      <c r="AA31" s="325"/>
+      <c r="AB31" s="325"/>
+      <c r="AC31" s="325"/>
+      <c r="AD31" s="325"/>
+      <c r="AE31" s="320"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="36"/>
       <c r="AH31" s="93"/>
@@ -29274,31 +29273,31 @@
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="300"/>
-      <c r="G32" s="326"/>
-      <c r="H32" s="326"/>
-      <c r="I32" s="326"/>
-      <c r="J32" s="326"/>
-      <c r="K32" s="337"/>
-      <c r="L32" s="313"/>
-      <c r="M32" s="314"/>
-      <c r="N32" s="314"/>
-      <c r="O32" s="314"/>
-      <c r="P32" s="314"/>
-      <c r="Q32" s="314"/>
-      <c r="R32" s="314"/>
-      <c r="S32" s="314"/>
-      <c r="T32" s="314"/>
-      <c r="U32" s="314"/>
-      <c r="V32" s="314"/>
-      <c r="W32" s="314"/>
-      <c r="X32" s="314"/>
-      <c r="Y32" s="349"/>
-      <c r="Z32" s="339"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="326"/>
-      <c r="AD32" s="326"/>
-      <c r="AE32" s="322"/>
+      <c r="G32" s="324"/>
+      <c r="H32" s="324"/>
+      <c r="I32" s="324"/>
+      <c r="J32" s="324"/>
+      <c r="K32" s="335"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="312"/>
+      <c r="N32" s="312"/>
+      <c r="O32" s="312"/>
+      <c r="P32" s="312"/>
+      <c r="Q32" s="312"/>
+      <c r="R32" s="312"/>
+      <c r="S32" s="312"/>
+      <c r="T32" s="312"/>
+      <c r="U32" s="312"/>
+      <c r="V32" s="312"/>
+      <c r="W32" s="312"/>
+      <c r="X32" s="312"/>
+      <c r="Y32" s="347"/>
+      <c r="Z32" s="337"/>
+      <c r="AA32" s="324"/>
+      <c r="AB32" s="324"/>
+      <c r="AC32" s="324"/>
+      <c r="AD32" s="324"/>
+      <c r="AE32" s="320"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="36"/>
       <c r="AH32" s="93"/>
@@ -29308,31 +29307,31 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="300"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="321"/>
-      <c r="J33" s="321"/>
-      <c r="K33" s="337"/>
-      <c r="L33" s="313"/>
-      <c r="M33" s="314"/>
-      <c r="N33" s="314"/>
-      <c r="O33" s="314"/>
-      <c r="P33" s="314"/>
-      <c r="Q33" s="314"/>
-      <c r="R33" s="314"/>
-      <c r="S33" s="314"/>
-      <c r="T33" s="314"/>
-      <c r="U33" s="314"/>
-      <c r="V33" s="314"/>
-      <c r="W33" s="314"/>
-      <c r="X33" s="314"/>
-      <c r="Y33" s="347"/>
-      <c r="Z33" s="339"/>
-      <c r="AA33" s="321"/>
-      <c r="AB33" s="321"/>
-      <c r="AC33" s="321"/>
-      <c r="AD33" s="321"/>
-      <c r="AE33" s="322"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="319"/>
+      <c r="K33" s="335"/>
+      <c r="L33" s="311"/>
+      <c r="M33" s="312"/>
+      <c r="N33" s="312"/>
+      <c r="O33" s="312"/>
+      <c r="P33" s="312"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="312"/>
+      <c r="S33" s="312"/>
+      <c r="T33" s="312"/>
+      <c r="U33" s="312"/>
+      <c r="V33" s="312"/>
+      <c r="W33" s="312"/>
+      <c r="X33" s="312"/>
+      <c r="Y33" s="345"/>
+      <c r="Z33" s="337"/>
+      <c r="AA33" s="319"/>
+      <c r="AB33" s="319"/>
+      <c r="AC33" s="319"/>
+      <c r="AD33" s="319"/>
+      <c r="AE33" s="320"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="36"/>
       <c r="AH33" s="93"/>
@@ -29342,31 +29341,31 @@
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
       <c r="F34" s="300"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
-      <c r="J34" s="327"/>
-      <c r="K34" s="337"/>
-      <c r="L34" s="313"/>
-      <c r="M34" s="314"/>
-      <c r="N34" s="315"/>
-      <c r="O34" s="315"/>
-      <c r="P34" s="315"/>
-      <c r="Q34" s="315"/>
-      <c r="R34" s="315"/>
-      <c r="S34" s="314"/>
-      <c r="T34" s="314"/>
-      <c r="U34" s="314"/>
-      <c r="V34" s="314"/>
-      <c r="W34" s="314"/>
-      <c r="X34" s="314"/>
-      <c r="Y34" s="347"/>
-      <c r="Z34" s="339"/>
-      <c r="AA34" s="327"/>
-      <c r="AB34" s="327"/>
-      <c r="AC34" s="327"/>
-      <c r="AD34" s="327"/>
-      <c r="AE34" s="322"/>
+      <c r="G34" s="325"/>
+      <c r="H34" s="325"/>
+      <c r="I34" s="325"/>
+      <c r="J34" s="325"/>
+      <c r="K34" s="335"/>
+      <c r="L34" s="311"/>
+      <c r="M34" s="312"/>
+      <c r="N34" s="313"/>
+      <c r="O34" s="313"/>
+      <c r="P34" s="313"/>
+      <c r="Q34" s="313"/>
+      <c r="R34" s="313"/>
+      <c r="S34" s="312"/>
+      <c r="T34" s="312"/>
+      <c r="U34" s="312"/>
+      <c r="V34" s="312"/>
+      <c r="W34" s="312"/>
+      <c r="X34" s="312"/>
+      <c r="Y34" s="345"/>
+      <c r="Z34" s="337"/>
+      <c r="AA34" s="325"/>
+      <c r="AB34" s="325"/>
+      <c r="AC34" s="325"/>
+      <c r="AD34" s="325"/>
+      <c r="AE34" s="320"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="36"/>
       <c r="AH34" s="93"/>
@@ -29376,31 +29375,31 @@
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="300"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="337"/>
-      <c r="L35" s="316"/>
-      <c r="M35" s="317"/>
-      <c r="N35" s="317"/>
-      <c r="O35" s="317"/>
-      <c r="P35" s="317"/>
-      <c r="Q35" s="317"/>
-      <c r="R35" s="317"/>
-      <c r="S35" s="317"/>
-      <c r="T35" s="317"/>
-      <c r="U35" s="317"/>
-      <c r="V35" s="317"/>
-      <c r="W35" s="317"/>
-      <c r="X35" s="317"/>
-      <c r="Y35" s="348"/>
-      <c r="Z35" s="339"/>
-      <c r="AA35" s="326"/>
-      <c r="AB35" s="326"/>
-      <c r="AC35" s="326"/>
-      <c r="AD35" s="326"/>
-      <c r="AE35" s="322"/>
+      <c r="G35" s="324"/>
+      <c r="H35" s="324"/>
+      <c r="I35" s="324"/>
+      <c r="J35" s="324"/>
+      <c r="K35" s="335"/>
+      <c r="L35" s="314"/>
+      <c r="M35" s="315"/>
+      <c r="N35" s="315"/>
+      <c r="O35" s="315"/>
+      <c r="P35" s="315"/>
+      <c r="Q35" s="315"/>
+      <c r="R35" s="315"/>
+      <c r="S35" s="315"/>
+      <c r="T35" s="315"/>
+      <c r="U35" s="315"/>
+      <c r="V35" s="315"/>
+      <c r="W35" s="315"/>
+      <c r="X35" s="315"/>
+      <c r="Y35" s="346"/>
+      <c r="Z35" s="337"/>
+      <c r="AA35" s="324"/>
+      <c r="AB35" s="324"/>
+      <c r="AC35" s="324"/>
+      <c r="AD35" s="324"/>
+      <c r="AE35" s="320"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="36"/>
       <c r="AH35" s="93"/>
@@ -29410,31 +29409,31 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="300"/>
-      <c r="G36" s="321"/>
-      <c r="H36" s="321"/>
-      <c r="I36" s="321"/>
-      <c r="J36" s="321"/>
-      <c r="K36" s="337"/>
-      <c r="L36" s="338"/>
-      <c r="M36" s="338"/>
-      <c r="N36" s="338"/>
-      <c r="O36" s="338"/>
-      <c r="P36" s="338"/>
-      <c r="Q36" s="338"/>
-      <c r="R36" s="338"/>
-      <c r="S36" s="338"/>
-      <c r="T36" s="338"/>
-      <c r="U36" s="338"/>
-      <c r="V36" s="338"/>
-      <c r="W36" s="338"/>
-      <c r="X36" s="338"/>
-      <c r="Y36" s="338"/>
-      <c r="Z36" s="339"/>
-      <c r="AA36" s="321"/>
-      <c r="AB36" s="321"/>
-      <c r="AC36" s="321"/>
-      <c r="AD36" s="321"/>
-      <c r="AE36" s="322"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="319"/>
+      <c r="I36" s="319"/>
+      <c r="J36" s="319"/>
+      <c r="K36" s="335"/>
+      <c r="L36" s="336"/>
+      <c r="M36" s="336"/>
+      <c r="N36" s="336"/>
+      <c r="O36" s="336"/>
+      <c r="P36" s="336"/>
+      <c r="Q36" s="336"/>
+      <c r="R36" s="336"/>
+      <c r="S36" s="336"/>
+      <c r="T36" s="336"/>
+      <c r="U36" s="336"/>
+      <c r="V36" s="336"/>
+      <c r="W36" s="336"/>
+      <c r="X36" s="336"/>
+      <c r="Y36" s="336"/>
+      <c r="Z36" s="337"/>
+      <c r="AA36" s="319"/>
+      <c r="AB36" s="319"/>
+      <c r="AC36" s="319"/>
+      <c r="AD36" s="319"/>
+      <c r="AE36" s="320"/>
       <c r="AF36" s="36"/>
       <c r="AG36" s="36"/>
       <c r="AH36" s="93"/>
@@ -29444,33 +29443,33 @@
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="300"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="327"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="338"/>
-      <c r="M37" s="338"/>
-      <c r="N37" s="343"/>
-      <c r="O37" s="343"/>
-      <c r="P37" s="343"/>
-      <c r="Q37" s="343"/>
-      <c r="R37" s="343"/>
-      <c r="S37" s="338"/>
-      <c r="T37" s="338"/>
-      <c r="U37" s="338"/>
-      <c r="V37" s="338"/>
-      <c r="W37" s="344"/>
-      <c r="X37" s="345" t="s">
+      <c r="G37" s="325"/>
+      <c r="H37" s="325"/>
+      <c r="I37" s="325"/>
+      <c r="J37" s="325"/>
+      <c r="K37" s="335"/>
+      <c r="L37" s="336"/>
+      <c r="M37" s="336"/>
+      <c r="N37" s="341"/>
+      <c r="O37" s="341"/>
+      <c r="P37" s="341"/>
+      <c r="Q37" s="341"/>
+      <c r="R37" s="341"/>
+      <c r="S37" s="336"/>
+      <c r="T37" s="336"/>
+      <c r="U37" s="336"/>
+      <c r="V37" s="336"/>
+      <c r="W37" s="342"/>
+      <c r="X37" s="343" t="s">
         <v>392</v>
       </c>
-      <c r="Y37" s="346"/>
-      <c r="Z37" s="339"/>
-      <c r="AA37" s="327"/>
-      <c r="AB37" s="327"/>
-      <c r="AC37" s="327"/>
-      <c r="AD37" s="327"/>
-      <c r="AE37" s="322"/>
+      <c r="Y37" s="344"/>
+      <c r="Z37" s="337"/>
+      <c r="AA37" s="325"/>
+      <c r="AB37" s="325"/>
+      <c r="AC37" s="325"/>
+      <c r="AD37" s="325"/>
+      <c r="AE37" s="320"/>
       <c r="AF37" s="36"/>
       <c r="AG37" s="36"/>
       <c r="AH37" s="93"/>
@@ -29480,31 +29479,31 @@
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="300"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="321"/>
-      <c r="K38" s="340"/>
-      <c r="L38" s="341"/>
-      <c r="M38" s="341"/>
-      <c r="N38" s="341"/>
-      <c r="O38" s="341"/>
-      <c r="P38" s="341"/>
-      <c r="Q38" s="341"/>
-      <c r="R38" s="341"/>
-      <c r="S38" s="341"/>
-      <c r="T38" s="341"/>
-      <c r="U38" s="341"/>
-      <c r="V38" s="341"/>
-      <c r="W38" s="341"/>
-      <c r="X38" s="341"/>
-      <c r="Y38" s="341"/>
-      <c r="Z38" s="342"/>
-      <c r="AA38" s="321"/>
-      <c r="AB38" s="321"/>
-      <c r="AC38" s="321"/>
-      <c r="AD38" s="321"/>
-      <c r="AE38" s="322"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="319"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="339"/>
+      <c r="M38" s="339"/>
+      <c r="N38" s="339"/>
+      <c r="O38" s="339"/>
+      <c r="P38" s="339"/>
+      <c r="Q38" s="339"/>
+      <c r="R38" s="339"/>
+      <c r="S38" s="339"/>
+      <c r="T38" s="339"/>
+      <c r="U38" s="339"/>
+      <c r="V38" s="339"/>
+      <c r="W38" s="339"/>
+      <c r="X38" s="339"/>
+      <c r="Y38" s="339"/>
+      <c r="Z38" s="340"/>
+      <c r="AA38" s="319"/>
+      <c r="AB38" s="319"/>
+      <c r="AC38" s="319"/>
+      <c r="AD38" s="319"/>
+      <c r="AE38" s="320"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
       <c r="AH38" s="93"/>
@@ -29514,31 +29513,31 @@
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
       <c r="F39" s="300"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="321"/>
-      <c r="J39" s="321"/>
-      <c r="K39" s="321"/>
-      <c r="L39" s="321"/>
-      <c r="M39" s="321"/>
-      <c r="N39" s="321"/>
-      <c r="O39" s="321"/>
-      <c r="P39" s="321"/>
-      <c r="Q39" s="321"/>
-      <c r="R39" s="321"/>
-      <c r="S39" s="321"/>
-      <c r="T39" s="321"/>
-      <c r="U39" s="321"/>
-      <c r="V39" s="321"/>
-      <c r="W39" s="321"/>
-      <c r="X39" s="321"/>
-      <c r="Y39" s="321"/>
-      <c r="Z39" s="321"/>
-      <c r="AA39" s="321"/>
-      <c r="AB39" s="321"/>
-      <c r="AC39" s="321"/>
-      <c r="AD39" s="321"/>
-      <c r="AE39" s="322"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="319"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="319"/>
+      <c r="M39" s="319"/>
+      <c r="N39" s="319"/>
+      <c r="O39" s="319"/>
+      <c r="P39" s="319"/>
+      <c r="Q39" s="319"/>
+      <c r="R39" s="319"/>
+      <c r="S39" s="319"/>
+      <c r="T39" s="319"/>
+      <c r="U39" s="319"/>
+      <c r="V39" s="319"/>
+      <c r="W39" s="319"/>
+      <c r="X39" s="319"/>
+      <c r="Y39" s="319"/>
+      <c r="Z39" s="319"/>
+      <c r="AA39" s="319"/>
+      <c r="AB39" s="319"/>
+      <c r="AC39" s="319"/>
+      <c r="AD39" s="319"/>
+      <c r="AE39" s="320"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="93"/>
@@ -29547,32 +29546,32 @@
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="323"/>
-      <c r="G40" s="324"/>
-      <c r="H40" s="324"/>
-      <c r="I40" s="324"/>
-      <c r="J40" s="324"/>
-      <c r="K40" s="324"/>
-      <c r="L40" s="324"/>
-      <c r="M40" s="324"/>
-      <c r="N40" s="324"/>
-      <c r="O40" s="324"/>
-      <c r="P40" s="324"/>
-      <c r="Q40" s="324"/>
-      <c r="R40" s="324"/>
-      <c r="S40" s="324"/>
-      <c r="T40" s="324"/>
-      <c r="U40" s="324"/>
-      <c r="V40" s="324"/>
-      <c r="W40" s="324"/>
-      <c r="X40" s="324"/>
-      <c r="Y40" s="324"/>
-      <c r="Z40" s="324"/>
-      <c r="AA40" s="324"/>
-      <c r="AB40" s="324"/>
-      <c r="AC40" s="324"/>
-      <c r="AD40" s="324"/>
-      <c r="AE40" s="325"/>
+      <c r="F40" s="321"/>
+      <c r="G40" s="322"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="322"/>
+      <c r="J40" s="322"/>
+      <c r="K40" s="322"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="322"/>
+      <c r="N40" s="322"/>
+      <c r="O40" s="322"/>
+      <c r="P40" s="322"/>
+      <c r="Q40" s="322"/>
+      <c r="R40" s="322"/>
+      <c r="S40" s="322"/>
+      <c r="T40" s="322"/>
+      <c r="U40" s="322"/>
+      <c r="V40" s="322"/>
+      <c r="W40" s="322"/>
+      <c r="X40" s="322"/>
+      <c r="Y40" s="322"/>
+      <c r="Z40" s="322"/>
+      <c r="AA40" s="322"/>
+      <c r="AB40" s="322"/>
+      <c r="AC40" s="322"/>
+      <c r="AD40" s="322"/>
+      <c r="AE40" s="323"/>
       <c r="AF40" s="38"/>
       <c r="AG40" s="38"/>
       <c r="AH40" s="94"/>
@@ -29580,6 +29579,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29664,28 +29664,28 @@
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
-      <c r="Q4" s="328" t="s">
+      <c r="Q4" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="R4" s="329"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="331" t="s">
+      <c r="R4" s="327"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="329" t="s">
         <v>129</v>
       </c>
       <c r="U4" s="66"/>
       <c r="V4" s="66"/>
       <c r="W4" s="66"/>
-      <c r="X4" s="332"/>
+      <c r="X4" s="330"/>
       <c r="Y4" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z4" s="101"/>
       <c r="AA4" s="102"/>
-      <c r="AB4" s="333" t="s">
+      <c r="AB4" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="AC4" s="334"/>
-      <c r="AD4" s="335"/>
+      <c r="AC4" s="332"/>
+      <c r="AD4" s="333"/>
       <c r="AE4" s="53" t="s">
         <v>97</v>
       </c>
@@ -29719,7 +29719,7 @@
       <c r="Y5" s="113"/>
       <c r="Z5" s="113"/>
       <c r="AA5" s="113"/>
-      <c r="AB5" s="354"/>
+      <c r="AB5" s="352"/>
       <c r="AC5" s="113"/>
       <c r="AD5" s="113"/>
       <c r="AE5" s="114"/>
@@ -29753,7 +29753,7 @@
       <c r="Y6" s="116"/>
       <c r="Z6" s="116"/>
       <c r="AA6" s="116"/>
-      <c r="AB6" s="305"/>
+      <c r="AB6" s="303"/>
       <c r="AC6" s="116"/>
       <c r="AD6" s="116"/>
       <c r="AE6" s="117"/>
@@ -29767,38 +29767,38 @@
       <c r="E7" s="36"/>
       <c r="F7" s="115"/>
       <c r="G7" s="116"/>
-      <c r="H7" s="303" t="s">
+      <c r="H7" s="301" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303" t="s">
+      <c r="I7" s="301"/>
+      <c r="J7" s="301" t="s">
         <v>395</v>
       </c>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303" t="s">
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
+      <c r="P7" s="301"/>
+      <c r="Q7" s="301"/>
+      <c r="R7" s="301" t="s">
         <v>209</v>
       </c>
-      <c r="S7" s="303"/>
-      <c r="T7" s="303"/>
-      <c r="U7" s="303"/>
-      <c r="V7" s="303" t="s">
+      <c r="S7" s="301"/>
+      <c r="T7" s="301"/>
+      <c r="U7" s="301"/>
+      <c r="V7" s="301" t="s">
         <v>394</v>
       </c>
-      <c r="W7" s="303"/>
-      <c r="X7" s="303"/>
-      <c r="Y7" s="303"/>
-      <c r="Z7" s="303" t="s">
+      <c r="W7" s="301"/>
+      <c r="X7" s="301"/>
+      <c r="Y7" s="301"/>
+      <c r="Z7" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="AA7" s="303"/>
-      <c r="AB7" s="303"/>
-      <c r="AC7" s="303"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
       <c r="AD7" s="116"/>
       <c r="AE7" s="117"/>
       <c r="AF7" s="36"/>
@@ -29811,30 +29811,30 @@
       <c r="E8" s="36"/>
       <c r="F8" s="115"/>
       <c r="G8" s="116"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="304" t="s">
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="M8" s="304"/>
-      <c r="N8" s="304"/>
-      <c r="O8" s="304"/>
-      <c r="P8" s="304"/>
-      <c r="Q8" s="304"/>
-      <c r="R8" s="304"/>
-      <c r="S8" s="304"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
-      <c r="W8" s="304"/>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="304"/>
-      <c r="Z8" s="304"/>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="306"/>
-      <c r="AC8" s="304"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="302"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302"/>
+      <c r="U8" s="302"/>
+      <c r="V8" s="302"/>
+      <c r="W8" s="302"/>
+      <c r="X8" s="302"/>
+      <c r="Y8" s="302"/>
+      <c r="Z8" s="302"/>
+      <c r="AA8" s="302"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="302"/>
       <c r="AD8" s="116"/>
       <c r="AE8" s="117"/>
       <c r="AF8" s="36"/>
@@ -29879,7 +29879,7 @@
       </c>
       <c r="Z9" s="116"/>
       <c r="AA9" s="116"/>
-      <c r="AB9" s="305"/>
+      <c r="AB9" s="303"/>
       <c r="AC9" s="116"/>
       <c r="AD9" s="116"/>
       <c r="AE9" s="117"/>
@@ -29893,28 +29893,28 @@
       <c r="E10" s="36"/>
       <c r="F10" s="115"/>
       <c r="G10" s="116"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="303"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="303"/>
-      <c r="O10" s="303"/>
-      <c r="P10" s="303"/>
-      <c r="Q10" s="303"/>
-      <c r="R10" s="303"/>
-      <c r="S10" s="303"/>
-      <c r="T10" s="303"/>
-      <c r="U10" s="303"/>
-      <c r="V10" s="303"/>
-      <c r="W10" s="303"/>
-      <c r="X10" s="303"/>
-      <c r="Y10" s="303"/>
-      <c r="Z10" s="303"/>
-      <c r="AA10" s="303"/>
-      <c r="AB10" s="303"/>
-      <c r="AC10" s="303"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
+      <c r="Y10" s="301"/>
+      <c r="Z10" s="301"/>
+      <c r="AA10" s="301"/>
+      <c r="AB10" s="301"/>
+      <c r="AC10" s="301"/>
       <c r="AD10" s="116"/>
       <c r="AE10" s="117"/>
       <c r="AF10" s="36"/>
@@ -29927,30 +29927,30 @@
       <c r="E11" s="36"/>
       <c r="F11" s="115"/>
       <c r="G11" s="116"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="304"/>
-      <c r="J11" s="304"/>
-      <c r="K11" s="304"/>
-      <c r="L11" s="304" t="s">
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+      <c r="L11" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="M11" s="304"/>
-      <c r="N11" s="304"/>
-      <c r="O11" s="304"/>
-      <c r="P11" s="304"/>
-      <c r="Q11" s="304"/>
-      <c r="R11" s="304"/>
-      <c r="S11" s="304"/>
-      <c r="T11" s="304"/>
-      <c r="U11" s="304"/>
-      <c r="V11" s="304"/>
-      <c r="W11" s="304"/>
-      <c r="X11" s="304"/>
-      <c r="Y11" s="304"/>
-      <c r="Z11" s="304"/>
-      <c r="AA11" s="304"/>
-      <c r="AB11" s="306"/>
-      <c r="AC11" s="304"/>
+      <c r="M11" s="302"/>
+      <c r="N11" s="302"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="302"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="302"/>
+      <c r="W11" s="302"/>
+      <c r="X11" s="302"/>
+      <c r="Y11" s="302"/>
+      <c r="Z11" s="302"/>
+      <c r="AA11" s="302"/>
+      <c r="AB11" s="304"/>
+      <c r="AC11" s="302"/>
       <c r="AD11" s="116"/>
       <c r="AE11" s="117"/>
       <c r="AF11" s="36"/>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="Z12" s="116"/>
       <c r="AA12" s="116"/>
-      <c r="AB12" s="305"/>
+      <c r="AB12" s="303"/>
       <c r="AC12" s="116"/>
       <c r="AD12" s="116"/>
       <c r="AE12" s="117"/>
@@ -30009,28 +30009,28 @@
       <c r="E13" s="36"/>
       <c r="F13" s="115"/>
       <c r="G13" s="116"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="303"/>
-      <c r="Q13" s="303"/>
-      <c r="R13" s="303"/>
-      <c r="S13" s="303"/>
-      <c r="T13" s="303"/>
-      <c r="U13" s="303"/>
-      <c r="V13" s="303"/>
-      <c r="W13" s="303"/>
-      <c r="X13" s="303"/>
-      <c r="Y13" s="303"/>
-      <c r="Z13" s="303"/>
-      <c r="AA13" s="303"/>
-      <c r="AB13" s="303"/>
-      <c r="AC13" s="303"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="301"/>
+      <c r="M13" s="301"/>
+      <c r="N13" s="301"/>
+      <c r="O13" s="301"/>
+      <c r="P13" s="301"/>
+      <c r="Q13" s="301"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="301"/>
+      <c r="U13" s="301"/>
+      <c r="V13" s="301"/>
+      <c r="W13" s="301"/>
+      <c r="X13" s="301"/>
+      <c r="Y13" s="301"/>
+      <c r="Z13" s="301"/>
+      <c r="AA13" s="301"/>
+      <c r="AB13" s="301"/>
+      <c r="AC13" s="301"/>
       <c r="AD13" s="116"/>
       <c r="AE13" s="117"/>
       <c r="AF13" s="36"/>
@@ -30043,30 +30043,30 @@
       <c r="E14" s="36"/>
       <c r="F14" s="115"/>
       <c r="G14" s="116"/>
-      <c r="H14" s="304"/>
-      <c r="I14" s="304"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304" t="s">
+      <c r="H14" s="302"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="302"/>
+      <c r="L14" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="M14" s="304"/>
-      <c r="N14" s="304"/>
-      <c r="O14" s="304"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="304"/>
-      <c r="T14" s="304"/>
-      <c r="U14" s="304"/>
-      <c r="V14" s="304"/>
-      <c r="W14" s="304"/>
-      <c r="X14" s="304"/>
-      <c r="Y14" s="304"/>
-      <c r="Z14" s="304"/>
-      <c r="AA14" s="304"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="304"/>
+      <c r="M14" s="302"/>
+      <c r="N14" s="302"/>
+      <c r="O14" s="302"/>
+      <c r="P14" s="302"/>
+      <c r="Q14" s="302"/>
+      <c r="R14" s="302"/>
+      <c r="S14" s="302"/>
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="302"/>
+      <c r="W14" s="302"/>
+      <c r="X14" s="302"/>
+      <c r="Y14" s="302"/>
+      <c r="Z14" s="302"/>
+      <c r="AA14" s="302"/>
+      <c r="AB14" s="304"/>
+      <c r="AC14" s="302"/>
       <c r="AD14" s="116"/>
       <c r="AE14" s="117"/>
       <c r="AF14" s="36"/>
@@ -30111,7 +30111,7 @@
       </c>
       <c r="Z15" s="116"/>
       <c r="AA15" s="116"/>
-      <c r="AB15" s="305"/>
+      <c r="AB15" s="303"/>
       <c r="AC15" s="116"/>
       <c r="AD15" s="116"/>
       <c r="AE15" s="117"/>
@@ -30125,28 +30125,28 @@
       <c r="E16" s="36"/>
       <c r="F16" s="115"/>
       <c r="G16" s="116"/>
-      <c r="H16" s="303"/>
-      <c r="I16" s="303"/>
-      <c r="J16" s="303"/>
-      <c r="K16" s="303"/>
-      <c r="L16" s="303"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="303"/>
-      <c r="O16" s="303"/>
-      <c r="P16" s="303"/>
-      <c r="Q16" s="303"/>
-      <c r="R16" s="303"/>
-      <c r="S16" s="303"/>
-      <c r="T16" s="303"/>
-      <c r="U16" s="303"/>
-      <c r="V16" s="303"/>
-      <c r="W16" s="303"/>
-      <c r="X16" s="303"/>
-      <c r="Y16" s="303"/>
-      <c r="Z16" s="303"/>
-      <c r="AA16" s="303"/>
-      <c r="AB16" s="303"/>
-      <c r="AC16" s="303"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="301"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
+      <c r="Y16" s="301"/>
+      <c r="Z16" s="301"/>
+      <c r="AA16" s="301"/>
+      <c r="AB16" s="301"/>
+      <c r="AC16" s="301"/>
       <c r="AD16" s="116"/>
       <c r="AE16" s="117"/>
       <c r="AF16" s="36"/>
@@ -30159,30 +30159,30 @@
       <c r="E17" s="36"/>
       <c r="F17" s="115"/>
       <c r="G17" s="116"/>
-      <c r="H17" s="304"/>
-      <c r="I17" s="304"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
-      <c r="L17" s="304" t="s">
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302" t="s">
         <v>355</v>
       </c>
-      <c r="M17" s="304"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="304"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
-      <c r="U17" s="304"/>
-      <c r="V17" s="304"/>
-      <c r="W17" s="304"/>
-      <c r="X17" s="304"/>
-      <c r="Y17" s="304"/>
-      <c r="Z17" s="304"/>
-      <c r="AA17" s="304"/>
-      <c r="AB17" s="306"/>
-      <c r="AC17" s="304"/>
+      <c r="M17" s="302"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="302"/>
+      <c r="Q17" s="302"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="302"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="302"/>
+      <c r="Z17" s="302"/>
+      <c r="AA17" s="302"/>
+      <c r="AB17" s="304"/>
+      <c r="AC17" s="302"/>
       <c r="AD17" s="116"/>
       <c r="AE17" s="117"/>
       <c r="AF17" s="36"/>
@@ -30227,7 +30227,7 @@
       </c>
       <c r="Z18" s="116"/>
       <c r="AA18" s="116"/>
-      <c r="AB18" s="305"/>
+      <c r="AB18" s="303"/>
       <c r="AC18" s="116"/>
       <c r="AD18" s="116"/>
       <c r="AE18" s="117"/>
@@ -30241,28 +30241,28 @@
       <c r="E19" s="36"/>
       <c r="F19" s="115"/>
       <c r="G19" s="116"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="303"/>
-      <c r="O19" s="303"/>
-      <c r="P19" s="303"/>
-      <c r="Q19" s="303"/>
-      <c r="R19" s="303"/>
-      <c r="S19" s="303"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="303"/>
-      <c r="V19" s="303"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="303"/>
-      <c r="Y19" s="303"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="303"/>
-      <c r="AB19" s="303"/>
-      <c r="AC19" s="303"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
+      <c r="T19" s="301"/>
+      <c r="U19" s="301"/>
+      <c r="V19" s="301"/>
+      <c r="W19" s="301"/>
+      <c r="X19" s="301"/>
+      <c r="Y19" s="301"/>
+      <c r="Z19" s="301"/>
+      <c r="AA19" s="301"/>
+      <c r="AB19" s="301"/>
+      <c r="AC19" s="301"/>
       <c r="AD19" s="116"/>
       <c r="AE19" s="117"/>
       <c r="AF19" s="36"/>
@@ -30407,28 +30407,28 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="328" t="s">
+      <c r="Q24" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="329"/>
-      <c r="S24" s="330"/>
-      <c r="T24" s="331" t="s">
+      <c r="R24" s="327"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="329" t="s">
         <v>129</v>
       </c>
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
-      <c r="X24" s="332"/>
+      <c r="X24" s="330"/>
       <c r="Y24" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z24" s="101"/>
       <c r="AA24" s="102"/>
-      <c r="AB24" s="333" t="s">
+      <c r="AB24" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="AC24" s="334"/>
-      <c r="AD24" s="335"/>
+      <c r="AC24" s="332"/>
+      <c r="AD24" s="333"/>
       <c r="AE24" s="53" t="s">
         <v>97</v>
       </c>
@@ -30464,7 +30464,7 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="48"/>
-      <c r="AB25" s="355"/>
+      <c r="AB25" s="353"/>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
       <c r="AE25" s="233"/>
@@ -31120,28 +31120,28 @@
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
-      <c r="Q44" s="328" t="s">
+      <c r="Q44" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="R44" s="329"/>
-      <c r="S44" s="330"/>
-      <c r="T44" s="331" t="s">
+      <c r="R44" s="327"/>
+      <c r="S44" s="328"/>
+      <c r="T44" s="329" t="s">
         <v>129</v>
       </c>
       <c r="U44" s="66"/>
       <c r="V44" s="66"/>
       <c r="W44" s="66"/>
-      <c r="X44" s="332"/>
+      <c r="X44" s="330"/>
       <c r="Y44" s="100" t="s">
         <v>116</v>
       </c>
       <c r="Z44" s="101"/>
       <c r="AA44" s="102"/>
-      <c r="AB44" s="333" t="s">
+      <c r="AB44" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="AC44" s="334"/>
-      <c r="AD44" s="335"/>
+      <c r="AC44" s="332"/>
+      <c r="AD44" s="333"/>
       <c r="AE44" s="53" t="s">
         <v>97</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
-      <c r="AB45" s="355"/>
+      <c r="AB45" s="353"/>
       <c r="AC45" s="48"/>
       <c r="AD45" s="48"/>
       <c r="AE45" s="233"/>
@@ -31733,6 +31733,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Design&Spec/Design.xlsx
+++ b/Design&Spec/Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A71F0-1246-4C52-BC61-7371838B8EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC013F-B442-4E4C-8FC2-1C99C871AAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="4590" windowWidth="21600" windowHeight="11820" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOverview" sheetId="1" r:id="rId1"/>
@@ -3567,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AK134"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7800,9 +7800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2966A73-4336-46F7-A49C-4EE5560BE154}">
   <dimension ref="B2:BP79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12806,9 +12804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D214BE-E37F-4573-86FC-E2A12F63C0AA}">
   <dimension ref="B2:BP138"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M110" sqref="M106:M110"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21690,7 +21686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399ACCA1-7C19-4771-8440-355B030FBAEA}">
   <dimension ref="B2:BP92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26830,7 +26826,7 @@
   <dimension ref="B2:BP21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28255,7 +28251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841EB371-A22F-4155-BB19-6225587F06A6}">
   <dimension ref="B2:AH40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29605,9 +29601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232E16C2-B7D9-4899-AFA9-6D2E8ABCB180}">
   <dimension ref="B2:AH60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z55" sqref="Z55"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
